--- a/KiCad/KIT88/KIT88.xlsx
+++ b/KiCad/KIT88/KIT88.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd5bbc299b3a70eb/Repos/903/KiCad/KIT88/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonathanAlvesTooley\Repos\903\KiCad\KIT88\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DF7603E-AEF2-4283-83E0-E09A81033F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301FA9BF-7D3E-44D1-862C-B22C074A8F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,15 +24,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - KIT88" description="Connection to the 'KIT88' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - KIT88" description="Connection to the 'KIT88' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=KIT88;Extended Properties=&quot;&quot;" command="SELECT * FROM [KIT88]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="169">
   <si>
     <t>Id;"Designator";"Package";"Quantity";"Designation";"Supplier and ref";</t>
   </si>
@@ -274,9 +274,6 @@
     <t>Designation</t>
   </si>
   <si>
-    <t>Supplier and ref</t>
-  </si>
-  <si>
     <t>~</t>
   </si>
   <si>
@@ -539,12 +536,15 @@
   </si>
   <si>
     <t>485-3088</t>
+  </si>
+  <si>
+    <t>RS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1104,7 +1104,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="5">
       <queryTableField id="2" name="Designator" tableColumnId="2"/>
@@ -1123,14 +1123,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="_KIT88" displayName="_KIT88" ref="A1:E32" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_KIT88" displayName="_KIT88" ref="A1:E32" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="2" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" uniqueName="3" name="Package" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Package" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="RS" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1432,11 +1431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1447,7 @@
     <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,539 +1464,539 @@
         <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2002,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
